--- a/artfynd/Björnberget SV artfynd.xlsx
+++ b/artfynd/Björnberget SV artfynd.xlsx
@@ -2494,48 +2494,48 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>7242848</v>
+        <v>7242834</v>
       </c>
       <c r="B19" t="n">
-        <v>91256</v>
+        <v>92727</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1205</v>
+        <v>2079</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Björnberget, Ång</t>
+          <t>Abborrtjärn, Ång</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>685785</v>
+        <v>686072</v>
       </c>
       <c r="R19" t="n">
-        <v>7092026</v>
+        <v>7091780</v>
       </c>
       <c r="S19" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2559,12 +2559,12 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2013-06-11</t>
+          <t>2013-06-12</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2013-06-11</t>
+          <t>2013-06-12</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2578,7 +2578,7 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>lövbarr</t>
+          <t>tallskog</t>
         </is>
       </c>
       <c r="AN19" t="n">
@@ -2586,7 +2586,7 @@
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>1 substratenheter # asp</t>
+          <t>1 substratenheter # tallåga</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -2608,48 +2608,48 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>7242834</v>
+        <v>7242848</v>
       </c>
       <c r="B20" t="n">
-        <v>92727</v>
+        <v>91256</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2079</v>
+        <v>1205</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Abborrtjärn, Ång</t>
+          <t>Björnberget, Ång</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>686072</v>
+        <v>685785</v>
       </c>
       <c r="R20" t="n">
-        <v>7091780</v>
+        <v>7092026</v>
       </c>
       <c r="S20" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2673,12 +2673,12 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2013-06-12</t>
+          <t>2013-06-11</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2013-06-12</t>
+          <t>2013-06-11</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2692,7 +2692,7 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>tallskog</t>
+          <t>lövbarr</t>
         </is>
       </c>
       <c r="AN20" t="n">
@@ -2700,7 +2700,7 @@
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>1 substratenheter # tallåga</t>
+          <t>1 substratenheter # asp</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>

--- a/artfynd/Björnberget SV artfynd.xlsx
+++ b/artfynd/Björnberget SV artfynd.xlsx
@@ -2290,32 +2290,32 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1921682</v>
+        <v>2056628</v>
       </c>
       <c r="B17" t="n">
-        <v>80083</v>
+        <v>80112</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2392,32 +2392,32 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2056628</v>
+        <v>1921682</v>
       </c>
       <c r="B18" t="n">
-        <v>80112</v>
+        <v>80083</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2494,48 +2494,48 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>7242834</v>
+        <v>7242848</v>
       </c>
       <c r="B19" t="n">
-        <v>92727</v>
+        <v>91256</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2079</v>
+        <v>1205</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Abborrtjärn, Ång</t>
+          <t>Björnberget, Ång</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>686072</v>
+        <v>685785</v>
       </c>
       <c r="R19" t="n">
-        <v>7091780</v>
+        <v>7092026</v>
       </c>
       <c r="S19" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2559,12 +2559,12 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2013-06-12</t>
+          <t>2013-06-11</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2013-06-12</t>
+          <t>2013-06-11</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2578,7 +2578,7 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>tallskog</t>
+          <t>lövbarr</t>
         </is>
       </c>
       <c r="AN19" t="n">
@@ -2586,7 +2586,7 @@
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>1 substratenheter # tallåga</t>
+          <t>1 substratenheter # asp</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -2608,48 +2608,48 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>7242848</v>
+        <v>7242834</v>
       </c>
       <c r="B20" t="n">
-        <v>91256</v>
+        <v>92727</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1205</v>
+        <v>2079</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Björnberget, Ång</t>
+          <t>Abborrtjärn, Ång</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>685785</v>
+        <v>686072</v>
       </c>
       <c r="R20" t="n">
-        <v>7092026</v>
+        <v>7091780</v>
       </c>
       <c r="S20" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2673,12 +2673,12 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2013-06-11</t>
+          <t>2013-06-12</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2013-06-11</t>
+          <t>2013-06-12</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2692,7 +2692,7 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>lövbarr</t>
+          <t>tallskog</t>
         </is>
       </c>
       <c r="AN20" t="n">
@@ -2700,7 +2700,7 @@
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>1 substratenheter # asp</t>
+          <t>1 substratenheter # tallåga</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>

--- a/artfynd/Björnberget SV artfynd.xlsx
+++ b/artfynd/Björnberget SV artfynd.xlsx
@@ -1297,10 +1297,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>53620875</v>
+        <v>53620894</v>
       </c>
       <c r="B8" t="n">
-        <v>57646</v>
+        <v>58027</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1308,21 +1308,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>102119</v>
+        <v>103015</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Göktyta</t>
+          <t>Kungsfågel</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Jynx torquilla</t>
+          <t>Regulus regulus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>Från tall efter vägen inne i byn</t>
+          <t>I bäckskogsmiljö</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1420,10 +1420,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>53620894</v>
+        <v>53620875</v>
       </c>
       <c r="B9" t="n">
-        <v>58027</v>
+        <v>57646</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1431,21 +1431,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>103015</v>
+        <v>102119</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Kungsfågel</t>
+          <t>Göktyta</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Regulus regulus</t>
+          <t>Jynx torquilla</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>I bäckskogsmiljö</t>
+          <t>Från tall efter vägen inne i byn</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -2290,32 +2290,32 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2056628</v>
+        <v>1921682</v>
       </c>
       <c r="B17" t="n">
-        <v>80112</v>
+        <v>80083</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2392,32 +2392,32 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1921682</v>
+        <v>2056628</v>
       </c>
       <c r="B18" t="n">
-        <v>80083</v>
+        <v>80112</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2494,48 +2494,48 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>7242848</v>
+        <v>7242834</v>
       </c>
       <c r="B19" t="n">
-        <v>91256</v>
+        <v>92727</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1205</v>
+        <v>2079</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Björnberget, Ång</t>
+          <t>Abborrtjärn, Ång</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>685785</v>
+        <v>686072</v>
       </c>
       <c r="R19" t="n">
-        <v>7092026</v>
+        <v>7091780</v>
       </c>
       <c r="S19" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2559,12 +2559,12 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2013-06-11</t>
+          <t>2013-06-12</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2013-06-11</t>
+          <t>2013-06-12</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2578,7 +2578,7 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>lövbarr</t>
+          <t>tallskog</t>
         </is>
       </c>
       <c r="AN19" t="n">
@@ -2586,7 +2586,7 @@
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>1 substratenheter # asp</t>
+          <t>1 substratenheter # tallåga</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -2608,48 +2608,48 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>7242834</v>
+        <v>7242848</v>
       </c>
       <c r="B20" t="n">
-        <v>92727</v>
+        <v>91256</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2079</v>
+        <v>1205</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Abborrtjärn, Ång</t>
+          <t>Björnberget, Ång</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>686072</v>
+        <v>685785</v>
       </c>
       <c r="R20" t="n">
-        <v>7091780</v>
+        <v>7092026</v>
       </c>
       <c r="S20" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2673,12 +2673,12 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2013-06-12</t>
+          <t>2013-06-11</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2013-06-12</t>
+          <t>2013-06-11</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2692,7 +2692,7 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>tallskog</t>
+          <t>lövbarr</t>
         </is>
       </c>
       <c r="AN20" t="n">
@@ -2700,7 +2700,7 @@
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>1 substratenheter # tallåga</t>
+          <t>1 substratenheter # asp</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
